--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>807.5552873333332</v>
+        <v>1023.207113</v>
       </c>
       <c r="H2">
-        <v>2422.665862</v>
+        <v>3069.621339</v>
       </c>
       <c r="I2">
-        <v>0.1778154119443225</v>
+        <v>0.206942302533768</v>
       </c>
       <c r="J2">
-        <v>0.1875399841739631</v>
+        <v>0.223591263450141</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>17027.27012365655</v>
+        <v>16515.30906287442</v>
       </c>
       <c r="R2">
-        <v>153245.4311129089</v>
+        <v>148637.7815658698</v>
       </c>
       <c r="S2">
-        <v>0.006012509320723071</v>
+        <v>0.007083734358289305</v>
       </c>
       <c r="T2">
-        <v>0.00658100772943657</v>
+        <v>0.008127248113343472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>807.5552873333332</v>
+        <v>1023.207113</v>
       </c>
       <c r="H3">
-        <v>2422.665862</v>
+        <v>3069.621339</v>
       </c>
       <c r="I3">
-        <v>0.1778154119443225</v>
+        <v>0.206942302533768</v>
       </c>
       <c r="J3">
-        <v>0.1875399841739631</v>
+        <v>0.223591263450141</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>65463.10971375788</v>
+        <v>82944.56187563574</v>
       </c>
       <c r="R3">
-        <v>589167.987423821</v>
+        <v>746501.0568807218</v>
       </c>
       <c r="S3">
-        <v>0.02311571699157155</v>
+        <v>0.03557652118739293</v>
       </c>
       <c r="T3">
-        <v>0.02530136821055371</v>
+        <v>0.04081734295431559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>807.5552873333332</v>
+        <v>1023.207113</v>
       </c>
       <c r="H4">
-        <v>2422.665862</v>
+        <v>3069.621339</v>
       </c>
       <c r="I4">
-        <v>0.1778154119443225</v>
+        <v>0.206942302533768</v>
       </c>
       <c r="J4">
-        <v>0.1875399841739631</v>
+        <v>0.223591263450141</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>110634.6040983043</v>
+        <v>172618.8360614892</v>
       </c>
       <c r="R4">
-        <v>995711.436884739</v>
+        <v>1553569.524553403</v>
       </c>
       <c r="S4">
-        <v>0.03906624981601654</v>
+        <v>0.07403954568706446</v>
       </c>
       <c r="T4">
-        <v>0.04276006543776738</v>
+        <v>0.08494640362873797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>807.5552873333332</v>
+        <v>1023.207113</v>
       </c>
       <c r="H5">
-        <v>2422.665862</v>
+        <v>3069.621339</v>
       </c>
       <c r="I5">
-        <v>0.1778154119443225</v>
+        <v>0.206942302533768</v>
       </c>
       <c r="J5">
-        <v>0.1875399841739631</v>
+        <v>0.223591263450141</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>55019.70917725423</v>
+        <v>84347.8455805368</v>
       </c>
       <c r="R5">
-        <v>330118.2550635254</v>
+        <v>506087.0734832208</v>
       </c>
       <c r="S5">
-        <v>0.01942804171480861</v>
+        <v>0.03617841661405381</v>
       </c>
       <c r="T5">
-        <v>0.01417667575746842</v>
+        <v>0.02767193623198206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>807.5552873333332</v>
+        <v>1023.207113</v>
       </c>
       <c r="H6">
-        <v>2422.665862</v>
+        <v>3069.621339</v>
       </c>
       <c r="I6">
-        <v>0.1778154119443225</v>
+        <v>0.206942302533768</v>
       </c>
       <c r="J6">
-        <v>0.1875399841739631</v>
+        <v>0.223591263450141</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>255423.9318685726</v>
+        <v>126047.2263138779</v>
       </c>
       <c r="R6">
-        <v>2298815.386817154</v>
+        <v>1134425.036824901</v>
       </c>
       <c r="S6">
-        <v>0.09019289410120269</v>
+        <v>0.05406408468696752</v>
       </c>
       <c r="T6">
-        <v>0.09872086703873695</v>
+        <v>0.06202833252176188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3791.806457</v>
       </c>
       <c r="I7">
-        <v>0.2783056622624738</v>
+        <v>0.2556293015703424</v>
       </c>
       <c r="J7">
-        <v>0.2935259600139241</v>
+        <v>0.2761952380599582</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>26650.02789392675</v>
+        <v>20400.84056894088</v>
       </c>
       <c r="R7">
-        <v>239850.2510453407</v>
+        <v>183607.5651204679</v>
       </c>
       <c r="S7">
-        <v>0.009410406949916574</v>
+        <v>0.008750313707483038</v>
       </c>
       <c r="T7">
-        <v>0.01030018542525882</v>
+        <v>0.01003933334782465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3791.806457</v>
       </c>
       <c r="I8">
-        <v>0.2783056622624738</v>
+        <v>0.2556293015703424</v>
       </c>
       <c r="J8">
-        <v>0.2935259600139241</v>
+        <v>0.2761952380599582</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>102458.8020995223</v>
@@ -948,10 +948,10 @@
         <v>922129.2188957006</v>
       </c>
       <c r="S8">
-        <v>0.0361792875863067</v>
+        <v>0.04394655491934402</v>
       </c>
       <c r="T8">
-        <v>0.03960013341357434</v>
+        <v>0.05042037680848859</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3791.806457</v>
       </c>
       <c r="I9">
-        <v>0.2783056622624738</v>
+        <v>0.2556293015703424</v>
       </c>
       <c r="J9">
-        <v>0.2935259600139241</v>
+        <v>0.2761952380599582</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>173158.4255045688</v>
+        <v>213230.6056326185</v>
       </c>
       <c r="R9">
-        <v>1558425.82954112</v>
+        <v>1919075.450693566</v>
       </c>
       <c r="S9">
-        <v>0.06114407299273968</v>
+        <v>0.09145871637086556</v>
       </c>
       <c r="T9">
-        <v>0.06692540427131707</v>
+        <v>0.1049316141004246</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3791.806457</v>
       </c>
       <c r="I10">
-        <v>0.2783056622624738</v>
+        <v>0.2556293015703424</v>
       </c>
       <c r="J10">
-        <v>0.2935259600139241</v>
+        <v>0.2761952380599582</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>86113.43883318185</v>
+        <v>104192.2342156087</v>
       </c>
       <c r="R10">
-        <v>516680.632999091</v>
+        <v>625153.4052936521</v>
       </c>
       <c r="S10">
-        <v>0.03040756679514256</v>
+        <v>0.04469005736254602</v>
       </c>
       <c r="T10">
-        <v>0.02218845426400949</v>
+        <v>0.03418227035009604</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3791.806457</v>
       </c>
       <c r="I11">
-        <v>0.2783056622624738</v>
+        <v>0.2556293015703424</v>
       </c>
       <c r="J11">
-        <v>0.2935259600139241</v>
+        <v>0.2761952380599582</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>399773.7076841602</v>
+        <v>155702.1644824781</v>
       </c>
       <c r="R11">
-        <v>3597963.369157441</v>
+        <v>1401319.480342302</v>
       </c>
       <c r="S11">
-        <v>0.1411643279383683</v>
+        <v>0.06678365921010372</v>
       </c>
       <c r="T11">
-        <v>0.1545117826397643</v>
+        <v>0.07662164345312422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>660.4995319999999</v>
+        <v>761.6879476666667</v>
       </c>
       <c r="H12">
-        <v>1981.498596</v>
+        <v>2285.063843</v>
       </c>
       <c r="I12">
-        <v>0.1454352391889347</v>
+        <v>0.1540503928282995</v>
       </c>
       <c r="J12">
-        <v>0.1533889675680624</v>
+        <v>0.1664440839100528</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>13926.60555173919</v>
+        <v>12294.19899974983</v>
       </c>
       <c r="R12">
-        <v>125339.4499656527</v>
+        <v>110647.7909977485</v>
       </c>
       <c r="S12">
-        <v>0.004917631838678081</v>
+        <v>0.005273218898333864</v>
       </c>
       <c r="T12">
-        <v>0.005382606731156271</v>
+        <v>0.006050023359865342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>660.4995319999999</v>
+        <v>761.6879476666667</v>
       </c>
       <c r="H13">
-        <v>1981.498596</v>
+        <v>2285.063843</v>
       </c>
       <c r="I13">
-        <v>0.1454352391889347</v>
+        <v>0.1540503928282995</v>
       </c>
       <c r="J13">
-        <v>0.1533889675680624</v>
+        <v>0.1664440839100528</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>53542.28250053462</v>
+        <v>61744.95104899044</v>
       </c>
       <c r="R13">
-        <v>481880.5425048116</v>
+        <v>555704.559440914</v>
       </c>
       <c r="S13">
-        <v>0.01890634671614173</v>
+        <v>0.02648359952160047</v>
       </c>
       <c r="T13">
-        <v>0.02069399101727682</v>
+        <v>0.03038493164196672</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>660.4995319999999</v>
+        <v>761.6879476666667</v>
       </c>
       <c r="H14">
-        <v>1981.498596</v>
+        <v>2285.063843</v>
       </c>
       <c r="I14">
-        <v>0.1454352391889347</v>
+        <v>0.1540503928282995</v>
       </c>
       <c r="J14">
-        <v>0.1533889675680624</v>
+        <v>0.1664440839100528</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>90488.05125310585</v>
+        <v>128499.5826336525</v>
       </c>
       <c r="R14">
-        <v>814392.4612779527</v>
+        <v>1156496.243702873</v>
       </c>
       <c r="S14">
-        <v>0.03195228874753593</v>
+        <v>0.05511594757703031</v>
       </c>
       <c r="T14">
-        <v>0.03497346083039997</v>
+        <v>0.06323514664781039</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>660.4995319999999</v>
+        <v>761.6879476666667</v>
       </c>
       <c r="H15">
-        <v>1981.498596</v>
+        <v>2285.063843</v>
       </c>
       <c r="I15">
-        <v>0.1454352391889347</v>
+        <v>0.1540503928282995</v>
       </c>
       <c r="J15">
-        <v>0.1533889675680624</v>
+        <v>0.1664440839100528</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>45000.62439359934</v>
+        <v>62789.57268189358</v>
       </c>
       <c r="R15">
-        <v>270003.746361596</v>
+        <v>376737.4360913615</v>
       </c>
       <c r="S15">
-        <v>0.01589019682191843</v>
+        <v>0.02693165787305105</v>
       </c>
       <c r="T15">
-        <v>0.01159510419904985</v>
+        <v>0.02059932935249375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>660.4995319999999</v>
+        <v>761.6879476666667</v>
       </c>
       <c r="H16">
-        <v>1981.498596</v>
+        <v>2285.063843</v>
       </c>
       <c r="I16">
-        <v>0.1454352391889347</v>
+        <v>0.1540503928282995</v>
       </c>
       <c r="J16">
-        <v>0.1533889675680624</v>
+        <v>0.1664440839100528</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>208911.2536404644</v>
+        <v>93831.10408468546</v>
       </c>
       <c r="R16">
-        <v>1880201.28276418</v>
+        <v>844479.9367621691</v>
       </c>
       <c r="S16">
-        <v>0.07376877506466049</v>
+        <v>0.04024596895828377</v>
       </c>
       <c r="T16">
-        <v>0.08074380479017949</v>
+        <v>0.04617465290791656</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>706.4814299999999</v>
+        <v>1104.505371</v>
       </c>
       <c r="H17">
-        <v>1412.96286</v>
+        <v>2209.010742</v>
       </c>
       <c r="I17">
-        <v>0.155559982674735</v>
+        <v>0.2233847690576539</v>
       </c>
       <c r="J17">
-        <v>0.1093782830555267</v>
+        <v>0.1609043749153822</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>14896.13198581137</v>
+        <v>17827.52224052392</v>
       </c>
       <c r="R17">
-        <v>89376.7919148682</v>
+        <v>106965.1334431435</v>
       </c>
       <c r="S17">
-        <v>0.00525998188535101</v>
+        <v>0.007646567880600511</v>
       </c>
       <c r="T17">
-        <v>0.003838217910657463</v>
+        <v>0.005848662229825268</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>706.4814299999999</v>
+        <v>1104.505371</v>
       </c>
       <c r="H18">
-        <v>1412.96286</v>
+        <v>2209.010742</v>
       </c>
       <c r="I18">
-        <v>0.155559982674735</v>
+        <v>0.2233847690576539</v>
       </c>
       <c r="J18">
-        <v>0.1093782830555267</v>
+        <v>0.1609043749153822</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>57269.72764371568</v>
+        <v>89534.86828123871</v>
       </c>
       <c r="R18">
-        <v>343618.3658622941</v>
+        <v>537209.2096874323</v>
       </c>
       <c r="S18">
-        <v>0.02022254705260807</v>
+        <v>0.03840323062039815</v>
       </c>
       <c r="T18">
-        <v>0.01475642768135768</v>
+        <v>0.0293736389894119</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>706.4814299999999</v>
+        <v>1104.505371</v>
       </c>
       <c r="H19">
-        <v>1412.96286</v>
+        <v>2209.010742</v>
       </c>
       <c r="I19">
-        <v>0.155559982674735</v>
+        <v>0.2233847690576539</v>
       </c>
       <c r="J19">
-        <v>0.1093782830555267</v>
+        <v>0.1609043749153822</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>96787.54450231392</v>
+        <v>186334.1538026264</v>
       </c>
       <c r="R19">
-        <v>580725.2670138835</v>
+        <v>1118004.922815759</v>
       </c>
       <c r="S19">
-        <v>0.03417670649633722</v>
+        <v>0.07992230980294465</v>
       </c>
       <c r="T19">
-        <v>0.02493880204546959</v>
+        <v>0.06113051004893017</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>706.4814299999999</v>
+        <v>1104.505371</v>
       </c>
       <c r="H20">
-        <v>1412.96286</v>
+        <v>2209.010742</v>
       </c>
       <c r="I20">
-        <v>0.155559982674735</v>
+        <v>0.2233847690576539</v>
       </c>
       <c r="J20">
-        <v>0.1093782830555267</v>
+        <v>0.1609043749153822</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>48133.42619065315</v>
+        <v>91049.64898341312</v>
       </c>
       <c r="R20">
-        <v>192533.7047626126</v>
+        <v>364198.5959336525</v>
       </c>
       <c r="S20">
-        <v>0.01699642229834372</v>
+        <v>0.03905294925808248</v>
       </c>
       <c r="T20">
-        <v>0.008268212566065063</v>
+        <v>0.01991372799366228</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>706.4814299999999</v>
+        <v>1104.505371</v>
       </c>
       <c r="H21">
-        <v>1412.96286</v>
+        <v>2209.010742</v>
       </c>
       <c r="I21">
-        <v>0.155559982674735</v>
+        <v>0.2233847690576539</v>
       </c>
       <c r="J21">
-        <v>0.1093782830555267</v>
+        <v>0.1609043749153822</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>223454.9974139997</v>
+        <v>136062.2269866205</v>
       </c>
       <c r="R21">
-        <v>1340729.984483998</v>
+        <v>816373.3619197232</v>
       </c>
       <c r="S21">
-        <v>0.07890432494209502</v>
+        <v>0.05835971149562805</v>
       </c>
       <c r="T21">
-        <v>0.05757662285197689</v>
+        <v>0.04463783565355257</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1103.065348333333</v>
+        <v>791.0717773333332</v>
       </c>
       <c r="H22">
-        <v>3309.196045</v>
+        <v>2373.215332</v>
       </c>
       <c r="I22">
-        <v>0.2428837039295342</v>
+        <v>0.1599932340099362</v>
       </c>
       <c r="J22">
-        <v>0.2561668051885238</v>
+        <v>0.1728650396644658</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>23258.08764392905</v>
+        <v>12768.47544117627</v>
       </c>
       <c r="R22">
-        <v>209322.7887953614</v>
+        <v>114916.2789705864</v>
       </c>
       <c r="S22">
-        <v>0.008212676942678784</v>
+        <v>0.0054766452048395</v>
       </c>
       <c r="T22">
-        <v>0.008989206927771505</v>
+        <v>0.006283416649637384</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1103.065348333333</v>
+        <v>791.0717773333332</v>
       </c>
       <c r="H23">
-        <v>3309.196045</v>
+        <v>2373.215332</v>
       </c>
       <c r="I23">
-        <v>0.2428837039295342</v>
+        <v>0.1599932340099362</v>
       </c>
       <c r="J23">
-        <v>0.2561668051885238</v>
+        <v>0.1728650396644658</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>89418.13526828351</v>
+        <v>64126.90172834422</v>
       </c>
       <c r="R23">
-        <v>804763.2174145516</v>
+        <v>577142.115555098</v>
       </c>
       <c r="S23">
-        <v>0.03157449008783195</v>
+        <v>0.02750526407555174</v>
       </c>
       <c r="T23">
-        <v>0.03455994032389311</v>
+        <v>0.03155709887729704</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1103.065348333333</v>
+        <v>791.0717773333332</v>
       </c>
       <c r="H24">
-        <v>3309.196045</v>
+        <v>2373.215332</v>
       </c>
       <c r="I24">
-        <v>0.2428837039295342</v>
+        <v>0.1599932340099362</v>
       </c>
       <c r="J24">
-        <v>0.2561668051885238</v>
+        <v>0.1728650396644658</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>151119.3103699455</v>
+        <v>133456.7437124272</v>
       </c>
       <c r="R24">
-        <v>1360073.793329509</v>
+        <v>1201110.693411845</v>
       </c>
       <c r="S24">
-        <v>0.05336182814637933</v>
+        <v>0.05724216950358378</v>
       </c>
       <c r="T24">
-        <v>0.05840732791512006</v>
+        <v>0.06567458498176063</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1103.065348333333</v>
+        <v>791.0717773333332</v>
       </c>
       <c r="H25">
-        <v>3309.196045</v>
+        <v>2373.215332</v>
       </c>
       <c r="I25">
-        <v>0.2428837039295342</v>
+        <v>0.1599932340099362</v>
       </c>
       <c r="J25">
-        <v>0.2561668051885238</v>
+        <v>0.1728650396644658</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>75153.16365423732</v>
+        <v>65211.82199564399</v>
       </c>
       <c r="R25">
-        <v>450918.9819254238</v>
+        <v>391270.9319738639</v>
       </c>
       <c r="S25">
-        <v>0.02653737761082121</v>
+        <v>0.02797060728797468</v>
       </c>
       <c r="T25">
-        <v>0.01936437049933627</v>
+        <v>0.02139399491966658</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1103.065348333333</v>
+        <v>791.0717773333332</v>
       </c>
       <c r="H26">
-        <v>3309.196045</v>
+        <v>2373.215332</v>
       </c>
       <c r="I26">
-        <v>0.2428837039295342</v>
+        <v>0.1599932340099362</v>
       </c>
       <c r="J26">
-        <v>0.2561668051885238</v>
+        <v>0.1728650396644658</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>348891.6397410441</v>
+        <v>97450.85044972344</v>
       </c>
       <c r="R26">
-        <v>3140024.757669397</v>
+        <v>877057.6540475111</v>
       </c>
       <c r="S26">
-        <v>0.1231973311418229</v>
+        <v>0.04179854793798647</v>
       </c>
       <c r="T26">
-        <v>0.1348459595224028</v>
+        <v>0.0479559442361042</v>
       </c>
     </row>
   </sheetData>
